--- a/Otras cosas/Probando.xlsx
+++ b/Otras cosas/Probando.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LedaUser\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799A3FF7-BD63-4F17-B7C0-05BD7F37F4FB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="8130" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayo" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja vacía" sheetId="3" r:id="rId2"/>
+    <sheet name="MAYO_2018" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja vacía" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja vacía_02" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="60">
   <si>
     <t>Cuota</t>
   </si>
@@ -87,13 +95,130 @@
   </si>
   <si>
     <t>Menos 2,5 Goles</t>
+  </si>
+  <si>
+    <t>Zhejiang Gt. Vs Shijiazhuang Ever Bright FC - Empate no válido</t>
+  </si>
+  <si>
+    <t>Zhejiang Gt.</t>
+  </si>
+  <si>
+    <t>Resumen</t>
+  </si>
+  <si>
+    <t>Acertada</t>
+  </si>
+  <si>
+    <t>Deporte</t>
+  </si>
+  <si>
+    <t>Divisón</t>
+  </si>
+  <si>
+    <t>Fútbol</t>
+  </si>
+  <si>
+    <t>Inglaterra</t>
+  </si>
+  <si>
+    <t>Inferiores</t>
+  </si>
+  <si>
+    <t>Tipo de apuesta</t>
+  </si>
+  <si>
+    <t>Más/Menos goles</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>Luverdense - Volta Redonda
+ Goles totales Más 2.5</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marsella - Atlético de Madrid - Cuotas de partido 	
+Atlético de Madrid	</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>Máxima</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Sol de America (Par) v Libertad - Más/Menos de 2.5 Goles 
+Más 2,5 Goles</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Jeonbuk Motors v Buriram Utd - Goles totales Más/Menos 2.5
+Más 2,5 Goles</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Jeonbuk Motors v Buriram Utd - Primer Gol 
+Buriram United</t>
+  </si>
+  <si>
+    <t>Primer Gol/Equipo</t>
+  </si>
+  <si>
+    <t>Flash Wolves - KINGZONE Dragon X
+Win KINGZONE</t>
+  </si>
+  <si>
+    <t>League Of Legends</t>
+  </si>
+  <si>
+    <t>"País"/Competición</t>
+  </si>
+  <si>
+    <t>MSI</t>
+  </si>
+  <si>
+    <t>Team Liquid - Royal Never Give Up
+Win - Royal</t>
+  </si>
+  <si>
+    <t>Palmeiras U20 - Sao Paulo U20 - Más/Menos de 2.5 Goles
+Menos 2,5 Goles</t>
+  </si>
+  <si>
+    <t>Zhejiang Gt. Vs Shijiazhuang Ever Bright FC - Empate no válido
+Zhejiang Gt.</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Empate no válido</t>
+  </si>
+  <si>
+    <t>Yield -&gt;&gt;</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Total unidades -&gt;&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -220,11 +345,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -265,12 +582,143 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -317,7 +765,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,9 +797,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,6 +849,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -558,36 +1042,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
         <f>SUM(C8,C15,C22,C29,C36,C43,G8,G15,G22,G29,G36,G43,K8,K15,K22,K29,K36,K43,O8,O15,O22,O29,O36,O43,S8,S15,S22,S29,S36,S43,W8,W15,W22,W29,W36,W43)</f>
-        <v>-0.47249999999999925</v>
+        <v>-2.4724999999999993</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:23">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="15.75" thickBot="1">
+    <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -595,7 +1079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:23">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>0</v>
       </c>
@@ -627,7 +1111,7 @@
       </c>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="2:23">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>1</v>
       </c>
@@ -657,7 +1141,7 @@
       </c>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="2:23">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
@@ -687,7 +1171,7 @@
       </c>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="2:23" ht="15.75" thickBot="1">
+    <row r="8" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
         <v>2</v>
       </c>
@@ -731,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:23">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="F9" s="8"/>
@@ -745,12 +1229,12 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="2:23">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F10" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1">
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -758,7 +1242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:23">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>0</v>
       </c>
@@ -788,7 +1272,7 @@
       </c>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="2:23">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
@@ -818,7 +1302,7 @@
       </c>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="2:23">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>8</v>
       </c>
@@ -848,7 +1332,7 @@
       </c>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="2:23" ht="15.75" thickBot="1">
+    <row r="15" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>2</v>
       </c>
@@ -892,14 +1376,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:23">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F17" s="30" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
     </row>
-    <row r="18" spans="2:23" ht="15.75" thickBot="1">
+    <row r="18" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -909,7 +1393,7 @@
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
     </row>
-    <row r="19" spans="2:23">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>0</v>
       </c>
@@ -939,7 +1423,7 @@
       </c>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="2:23">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>1</v>
       </c>
@@ -969,7 +1453,7 @@
       </c>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="2:23">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>8</v>
       </c>
@@ -999,7 +1483,7 @@
       </c>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="2:23" ht="15.75" thickBot="1">
+    <row r="22" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
         <v>2</v>
       </c>
@@ -1043,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:23">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1051,7 +1535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="15.75" thickBot="1">
+    <row r="25" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>11</v>
       </c>
@@ -1059,12 +1543,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:23">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>1.66</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>0</v>
@@ -1089,7 +1573,7 @@
       </c>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="2:23">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
@@ -1119,7 +1603,7 @@
       </c>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="2:23">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1147,7 +1631,7 @@
       </c>
       <c r="W28" s="5"/>
     </row>
-    <row r="29" spans="2:23" ht="15.75" thickBot="1">
+    <row r="29" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>2</v>
       </c>
@@ -1191,27 +1675,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="2:23" ht="15.75" thickBot="1">
+      <c r="F31" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="2:23">
+      <c r="F32" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="17">
         <v>1.83</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2"/>
+      <c r="F33" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10">
+        <v>1.8</v>
+      </c>
       <c r="J33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1229,17 +1721,19 @@
       </c>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="2:23">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="19">
         <v>1.25</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4"/>
+      <c r="F34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="12">
+        <v>2</v>
+      </c>
       <c r="J34" s="3" t="s">
         <v>1</v>
       </c>
@@ -1257,17 +1751,19 @@
       </c>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="2:23">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="5"/>
+      <c r="F35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="J35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1285,7 +1781,7 @@
       </c>
       <c r="W35" s="5"/>
     </row>
-    <row r="36" spans="2:23" ht="15.75" thickBot="1">
+    <row r="36" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="21" t="s">
         <v>2</v>
       </c>
@@ -1293,12 +1789,12 @@
         <f>IF(C35="YES",SUM(C33-1)*C34,IF(C35="NO",-C34,0))</f>
         <v>1.0375000000000001</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" s="7">
+      <c r="F36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="15">
         <f>IF(G35="YES",SUM(G33-1)*G34,IF(G35="NO",-G34,0))</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>2</v>
@@ -1329,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:23">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="F37" s="8"/>
@@ -1343,17 +1839,17 @@
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
     </row>
-    <row r="38" spans="2:23">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:23" ht="15.75" thickBot="1">
+    <row r="39" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:23">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1877,7 @@
       </c>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="2:23">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
         <v>1</v>
       </c>
@@ -1409,7 +1905,7 @@
       </c>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="2:23">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
         <v>8</v>
       </c>
@@ -1437,7 +1933,7 @@
       </c>
       <c r="W42" s="5"/>
     </row>
-    <row r="43" spans="2:23" ht="15.75" thickBot="1">
+    <row r="43" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>2</v>
       </c>
@@ -1487,16 +1983,533 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4102C179-E981-442D-9151-C7975A7696D3}">
+  <dimension ref="B2:J24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="57.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="32">
+        <f>SUM(J:J)</f>
+        <v>-2.4724999999999993</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="32">
+        <f>SUM(J:J)/SUM(E:E)*100</f>
+        <v>-13.736111111111107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="49">
+        <v>1.9</v>
+      </c>
+      <c r="E6" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="50">
+        <f>IF(B6="YES",SUM(D6-1)*E6,IF(B6="NO",-E6,0))</f>
+        <v>1.3499999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="39">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="39">
+        <v>1.25</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="52">
+        <f>IF(B7="YES",SUM(D7-1)*E7,IF(B7="NO",-E7,0))</f>
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="36">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E8" s="36">
+        <v>1</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="54">
+        <f t="shared" ref="J8:J15" si="0">IF(B8="YES",SUM(D8-1)*E8,IF(B8="NO",-E8,0))</f>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="55"/>
+      <c r="C9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="38">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E9" s="38">
+        <v>2</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="36">
+        <v>1.83</v>
+      </c>
+      <c r="E10" s="36">
+        <v>1.25</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="54">
+        <f t="shared" si="0"/>
+        <v>1.0375000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="39">
+        <v>2</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="52">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="39">
+        <v>3.6</v>
+      </c>
+      <c r="E12" s="39">
+        <v>1</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="52">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="39">
+        <v>1.8</v>
+      </c>
+      <c r="E13" s="39">
+        <v>2</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="52">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="36">
+        <v>1.33</v>
+      </c>
+      <c r="E14" s="36">
+        <v>3</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="54">
+        <f t="shared" si="0"/>
+        <v>0.99000000000000021</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="36">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E15" s="36">
+        <v>1</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="54">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="39">
+        <v>1.8</v>
+      </c>
+      <c r="E16" s="39">
+        <v>2</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="52">
+        <f t="shared" ref="J16:J23" si="1">IF(B16="YES",SUM(D16-1)*E16,IF(B16="NO",-E16,0))</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="55"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="55"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="55"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="55"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="55"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="55"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:W43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:23">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -1508,8 +2521,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="15.75" thickBot="1"/>
-    <row r="5" spans="2:23">
+    <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +2548,7 @@
       </c>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="2:23">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
@@ -1561,7 +2574,7 @@
       </c>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="2:23">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
         <v>8</v>
       </c>
@@ -1587,7 +2600,7 @@
       </c>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="2:23" ht="15.75" thickBot="1">
+    <row r="8" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="28" t="s">
         <v>2</v>
       </c>
@@ -1631,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:23">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="F9" s="8"/>
@@ -1645,15 +2658,15 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="2:23">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
     </row>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1">
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
     </row>
-    <row r="12" spans="2:23">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
         <v>0</v>
       </c>
@@ -1679,7 +2692,7 @@
       </c>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="2:23">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="s">
         <v>1</v>
       </c>
@@ -1705,7 +2718,7 @@
       </c>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="2:23">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
         <v>8</v>
       </c>
@@ -1731,7 +2744,7 @@
       </c>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="2:23" ht="15.75" thickBot="1">
+    <row r="15" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="28" t="s">
         <v>2</v>
       </c>
@@ -1775,19 +2788,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:23">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
     </row>
-    <row r="17" spans="2:23">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
     </row>
-    <row r="18" spans="2:23" ht="15.75" thickBot="1">
+    <row r="18" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
     </row>
-    <row r="19" spans="2:23">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
         <v>0</v>
       </c>
@@ -1813,7 +2826,7 @@
       </c>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="2:23">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="25" t="s">
         <v>1</v>
       </c>
@@ -1839,7 +2852,7 @@
       </c>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="2:23">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="25" t="s">
         <v>8</v>
       </c>
@@ -1865,7 +2878,7 @@
       </c>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="2:23" ht="15.75" thickBot="1">
+    <row r="22" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="28" t="s">
         <v>2</v>
       </c>
@@ -1909,19 +2922,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:23">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
     </row>
-    <row r="24" spans="2:23">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
     </row>
-    <row r="25" spans="2:23" ht="15.75" thickBot="1">
+    <row r="25" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
     </row>
-    <row r="26" spans="2:23">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="s">
         <v>0</v>
       </c>
@@ -1947,7 +2960,7 @@
       </c>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="2:23">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="25" t="s">
         <v>1</v>
       </c>
@@ -1973,7 +2986,7 @@
       </c>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="2:23">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
         <v>8</v>
       </c>
@@ -1999,7 +3012,7 @@
       </c>
       <c r="W28" s="5"/>
     </row>
-    <row r="29" spans="2:23" ht="15.75" thickBot="1">
+    <row r="29" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
@@ -2043,8 +3056,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:23" ht="15.75" thickBot="1"/>
-    <row r="33" spans="2:23">
+    <row r="32" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
@@ -2070,7 +3083,7 @@
       </c>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="2:23">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
@@ -2096,7 +3109,7 @@
       </c>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="2:23">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2122,7 +3135,7 @@
       </c>
       <c r="W35" s="5"/>
     </row>
-    <row r="36" spans="2:23" ht="15.75" thickBot="1">
+    <row r="36" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
         <v>2</v>
       </c>
@@ -2166,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:23">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="F37" s="8"/>
@@ -2180,8 +3193,8 @@
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
     </row>
-    <row r="39" spans="2:23" ht="15.75" thickBot="1"/>
-    <row r="40" spans="2:23">
+    <row r="39" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
@@ -2207,7 +3220,7 @@
       </c>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="2:23">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>1</v>
       </c>
@@ -2233,7 +3246,7 @@
       </c>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="2:23">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2259,7 +3272,7 @@
       </c>
       <c r="W42" s="5"/>
     </row>
-    <row r="43" spans="2:23" ht="15.75" thickBot="1">
+    <row r="43" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
         <v>2</v>
       </c>
@@ -2306,4 +3319,340 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E4F9CE-94AF-4052-A2FF-A74C737583B1}">
+  <dimension ref="B2:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="61">
+        <f>SUM(J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E3" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="61" t="e">
+        <f>SUM(J:J)/SUM(E:E)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66">
+        <f t="shared" ref="J6:J16" si="0">IF(B6="YES",SUM(D6-1)*E6,IF(B6="NO",-E6,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="55"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="55"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="55"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="55"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="55"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="55"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="55"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="55"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="55"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="55"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="55"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="56">
+        <f t="shared" ref="J16:J23" si="1">IF(B17="YES",SUM(D17-1)*E17,IF(B17="NO",-E17,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="55"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="55"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="55"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="55"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="55"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Otras cosas/Probando.xlsx
+++ b/Otras cosas/Probando.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LedaUser\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799A3FF7-BD63-4F17-B7C0-05BD7F37F4FB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="8130" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="8130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mayo" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Hoja vacía" sheetId="3" r:id="rId3"/>
     <sheet name="Hoja vacía_02" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -217,8 +211,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,35 +666,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -765,7 +759,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -797,27 +791,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -849,24 +825,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1042,19 +1000,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:W43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -1066,12 +1024,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23">
       <c r="F3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" ht="15.75" thickBot="1">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1079,7 +1037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23">
       <c r="B5" s="16" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1069,7 @@
       </c>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23">
       <c r="B6" s="18" t="s">
         <v>1</v>
       </c>
@@ -1141,7 +1099,7 @@
       </c>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23">
       <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
@@ -1171,7 +1129,7 @@
       </c>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" ht="15.75" thickBot="1">
       <c r="B8" s="21" t="s">
         <v>2</v>
       </c>
@@ -1215,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="F9" s="8"/>
@@ -1229,12 +1187,12 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23">
       <c r="F10" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" ht="15.75" thickBot="1">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -1242,7 +1200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23">
       <c r="B12" s="9" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1230,7 @@
       </c>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23">
       <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
@@ -1302,7 +1260,7 @@
       </c>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23">
       <c r="B14" s="11" t="s">
         <v>8</v>
       </c>
@@ -1332,7 +1290,7 @@
       </c>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" ht="15.75" thickBot="1">
       <c r="B15" s="14" t="s">
         <v>2</v>
       </c>
@@ -1376,14 +1334,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23">
       <c r="F17" s="30" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
     </row>
-    <row r="18" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23" ht="15.75" thickBot="1">
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -1393,7 +1351,7 @@
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23">
       <c r="B19" s="16" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1381,7 @@
       </c>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23">
       <c r="B20" s="18" t="s">
         <v>1</v>
       </c>
@@ -1453,7 +1411,7 @@
       </c>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23">
       <c r="B21" s="18" t="s">
         <v>8</v>
       </c>
@@ -1483,7 +1441,7 @@
       </c>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:23" ht="15.75" thickBot="1">
       <c r="B22" s="21" t="s">
         <v>2</v>
       </c>
@@ -1527,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1535,7 +1493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:23" ht="15.75" thickBot="1">
       <c r="B25" t="s">
         <v>11</v>
       </c>
@@ -1543,7 +1501,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23">
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +1531,7 @@
       </c>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23">
       <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
@@ -1603,7 +1561,7 @@
       </c>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23">
       <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1631,7 +1589,7 @@
       </c>
       <c r="W28" s="5"/>
     </row>
-    <row r="29" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:23" ht="15.75" thickBot="1">
       <c r="B29" s="6" t="s">
         <v>2</v>
       </c>
@@ -1675,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23">
       <c r="B31" t="s">
         <v>12</v>
       </c>
@@ -1683,7 +1641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:23" ht="15.75" thickBot="1">
       <c r="B32" t="s">
         <v>13</v>
       </c>
@@ -1691,7 +1649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23">
       <c r="B33" s="16" t="s">
         <v>0</v>
       </c>
@@ -1721,7 +1679,7 @@
       </c>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23">
       <c r="B34" s="18" t="s">
         <v>1</v>
       </c>
@@ -1751,7 +1709,7 @@
       </c>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23">
       <c r="B35" s="18" t="s">
         <v>8</v>
       </c>
@@ -1781,7 +1739,7 @@
       </c>
       <c r="W35" s="5"/>
     </row>
-    <row r="36" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:23" ht="15.75" thickBot="1">
       <c r="B36" s="21" t="s">
         <v>2</v>
       </c>
@@ -1825,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="F37" s="8"/>
@@ -1839,17 +1797,17 @@
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23">
       <c r="B38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:23" ht="15.75" thickBot="1">
       <c r="B39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23">
       <c r="B40" s="9" t="s">
         <v>0</v>
       </c>
@@ -1877,7 +1835,7 @@
       </c>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23">
       <c r="B41" s="11" t="s">
         <v>1</v>
       </c>
@@ -1905,7 +1863,7 @@
       </c>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23">
       <c r="B42" s="11" t="s">
         <v>8</v>
       </c>
@@ -1933,7 +1891,7 @@
       </c>
       <c r="W42" s="5"/>
     </row>
-    <row r="43" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:23" ht="15.75" thickBot="1">
       <c r="B43" s="14" t="s">
         <v>2</v>
       </c>
@@ -1983,14 +1941,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4102C179-E981-442D-9151-C7975A7696D3}">
-  <dimension ref="B2:J24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:J23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="57.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
@@ -1999,11 +1957,11 @@
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="62" t="s">
+    <row r="2" spans="2:10">
+      <c r="D2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="62"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="32">
         <f>SUM(J:J)</f>
         <v>-2.4724999999999993</v>
@@ -2012,7 +1970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10">
       <c r="E3" t="s">
         <v>57</v>
       </c>
@@ -2024,8 +1982,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1">
       <c r="B5" s="33" t="s">
         <v>27</v>
       </c>
@@ -2054,7 +2012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10">
       <c r="B6" s="47" t="s">
         <v>6</v>
       </c>
@@ -2084,7 +2042,7 @@
         <v>1.3499999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="B7" s="51" t="s">
         <v>7</v>
       </c>
@@ -2114,7 +2072,7 @@
         <v>-1.25</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="30">
       <c r="B8" s="53" t="s">
         <v>6</v>
       </c>
@@ -2144,7 +2102,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="30">
       <c r="B9" s="55"/>
       <c r="C9" s="43" t="s">
         <v>38</v>
@@ -2172,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="30">
       <c r="B10" s="53" t="s">
         <v>6</v>
       </c>
@@ -2202,7 +2160,7 @@
         <v>1.0375000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="33" customHeight="1">
       <c r="B11" s="51" t="s">
         <v>7</v>
       </c>
@@ -2232,7 +2190,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="30">
       <c r="B12" s="51" t="s">
         <v>7</v>
       </c>
@@ -2262,7 +2220,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="30">
       <c r="B13" s="51" t="s">
         <v>7</v>
       </c>
@@ -2292,7 +2250,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="30">
       <c r="B14" s="53" t="s">
         <v>6</v>
       </c>
@@ -2322,7 +2280,7 @@
         <v>0.99000000000000021</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="30">
       <c r="B15" s="53" t="s">
         <v>6</v>
       </c>
@@ -2352,7 +2310,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="30">
       <c r="B16" s="51" t="s">
         <v>7</v>
       </c>
@@ -2378,11 +2336,11 @@
         <v>56</v>
       </c>
       <c r="J16" s="52">
-        <f t="shared" ref="J16:J23" si="1">IF(B16="YES",SUM(D16-1)*E16,IF(B16="NO",-E16,0))</f>
+        <f t="shared" ref="J16:J30" si="1">IF(B16="YES",SUM(D16-1)*E16,IF(B16="NO",-E16,0))</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10">
       <c r="B17" s="55"/>
       <c r="C17" s="44"/>
       <c r="D17" s="38"/>
@@ -2396,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10">
       <c r="B18" s="55"/>
       <c r="C18" s="44"/>
       <c r="D18" s="38"/>
@@ -2410,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10">
       <c r="B19" s="55"/>
       <c r="C19" s="44"/>
       <c r="D19" s="38"/>
@@ -2424,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10">
       <c r="B20" s="55"/>
       <c r="C20" s="44"/>
       <c r="D20" s="38"/>
@@ -2438,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10">
       <c r="B21" s="55"/>
       <c r="C21" s="44"/>
       <c r="D21" s="38"/>
@@ -2452,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10">
       <c r="B22" s="55"/>
       <c r="C22" s="44"/>
       <c r="D22" s="38"/>
@@ -2466,30 +2424,128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="60">
+    <row r="23" spans="2:10">
+      <c r="B23" s="55"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
+    <row r="24" spans="2:10">
+      <c r="B24" s="55"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="55"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="55"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="55"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="55"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="55"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B30" s="57"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2500,16 +2556,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:W43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -2521,8 +2577,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" ht="15.75" thickBot="1"/>
+    <row r="5" spans="2:23">
       <c r="B5" s="23" t="s">
         <v>0</v>
       </c>
@@ -2548,7 +2604,7 @@
       </c>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23">
       <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
@@ -2574,7 +2630,7 @@
       </c>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23">
       <c r="B7" s="25" t="s">
         <v>8</v>
       </c>
@@ -2600,7 +2656,7 @@
       </c>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" ht="15.75" thickBot="1">
       <c r="B8" s="28" t="s">
         <v>2</v>
       </c>
@@ -2644,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="F9" s="8"/>
@@ -2658,15 +2714,15 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23">
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
     </row>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" ht="15.75" thickBot="1">
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23">
       <c r="B12" s="23" t="s">
         <v>0</v>
       </c>
@@ -2692,7 +2748,7 @@
       </c>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23">
       <c r="B13" s="25" t="s">
         <v>1</v>
       </c>
@@ -2718,7 +2774,7 @@
       </c>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23">
       <c r="B14" s="25" t="s">
         <v>8</v>
       </c>
@@ -2744,7 +2800,7 @@
       </c>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" ht="15.75" thickBot="1">
       <c r="B15" s="28" t="s">
         <v>2</v>
       </c>
@@ -2788,19 +2844,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
     </row>
-    <row r="18" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23" ht="15.75" thickBot="1">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23">
       <c r="B19" s="23" t="s">
         <v>0</v>
       </c>
@@ -2826,7 +2882,7 @@
       </c>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23">
       <c r="B20" s="25" t="s">
         <v>1</v>
       </c>
@@ -2852,7 +2908,7 @@
       </c>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23">
       <c r="B21" s="25" t="s">
         <v>8</v>
       </c>
@@ -2878,7 +2934,7 @@
       </c>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:23" ht="15.75" thickBot="1">
       <c r="B22" s="28" t="s">
         <v>2</v>
       </c>
@@ -2922,19 +2978,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23">
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23">
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
     </row>
-    <row r="25" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:23" ht="15.75" thickBot="1">
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23">
       <c r="B26" s="23" t="s">
         <v>0</v>
       </c>
@@ -2960,7 +3016,7 @@
       </c>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23">
       <c r="B27" s="25" t="s">
         <v>1</v>
       </c>
@@ -2986,7 +3042,7 @@
       </c>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23">
       <c r="B28" s="25" t="s">
         <v>8</v>
       </c>
@@ -3012,7 +3068,7 @@
       </c>
       <c r="W28" s="5"/>
     </row>
-    <row r="29" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:23" ht="15.75" thickBot="1">
       <c r="B29" s="28" t="s">
         <v>2</v>
       </c>
@@ -3056,8 +3112,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23" ht="15.75" thickBot="1"/>
+    <row r="33" spans="2:23">
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
@@ -3083,7 +3139,7 @@
       </c>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23">
       <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
@@ -3109,7 +3165,7 @@
       </c>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23">
       <c r="B35" s="3" t="s">
         <v>8</v>
       </c>
@@ -3135,7 +3191,7 @@
       </c>
       <c r="W35" s="5"/>
     </row>
-    <row r="36" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:23" ht="15.75" thickBot="1">
       <c r="B36" s="6" t="s">
         <v>2</v>
       </c>
@@ -3179,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="F37" s="8"/>
@@ -3193,8 +3249,8 @@
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
     </row>
-    <row r="39" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" ht="15.75" thickBot="1"/>
+    <row r="40" spans="2:23">
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
@@ -3220,7 +3276,7 @@
       </c>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23">
       <c r="B41" s="3" t="s">
         <v>1</v>
       </c>
@@ -3246,7 +3302,7 @@
       </c>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23">
       <c r="B42" s="3" t="s">
         <v>8</v>
       </c>
@@ -3272,7 +3328,7 @@
       </c>
       <c r="W42" s="5"/>
     </row>
-    <row r="43" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:23" ht="15.75" thickBot="1">
       <c r="B43" s="6" t="s">
         <v>2</v>
       </c>
@@ -3322,14 +3378,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E4F9CE-94AF-4052-A2FF-A74C737583B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.85546875" bestFit="1" customWidth="1"/>
@@ -3342,7 +3398,7 @@
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10">
       <c r="D2" s="72" t="s">
         <v>59</v>
       </c>
@@ -3355,8 +3411,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E3" s="71" t="s">
+    <row r="3" spans="2:10">
+      <c r="E3" s="70" t="s">
         <v>57</v>
       </c>
       <c r="F3" s="61" t="e">
@@ -3367,51 +3423,51 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="67" t="s">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B5" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="68" t="s">
+      <c r="D5" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="70" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66">
+      <c r="J5" s="69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65">
         <f t="shared" ref="J6:J16" si="0">IF(B6="YES",SUM(D6-1)*E6,IF(B6="NO",-E6,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="B7" s="55"/>
       <c r="C7" s="44"/>
       <c r="D7" s="38"/>
@@ -3425,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="B8" s="55"/>
       <c r="C8" s="44"/>
       <c r="D8" s="38"/>
@@ -3439,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="B9" s="55"/>
       <c r="C9" s="44"/>
       <c r="D9" s="38"/>
@@ -3453,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10">
       <c r="B10" s="55"/>
       <c r="C10" s="44"/>
       <c r="D10" s="38"/>
@@ -3467,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10">
       <c r="B11" s="55"/>
       <c r="C11" s="44"/>
       <c r="D11" s="38"/>
@@ -3481,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10">
       <c r="B12" s="55"/>
       <c r="C12" s="44"/>
       <c r="D12" s="38"/>
@@ -3495,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10">
       <c r="B13" s="55"/>
       <c r="C13" s="44"/>
       <c r="D13" s="38"/>
@@ -3509,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10">
       <c r="B14" s="55"/>
       <c r="C14" s="44"/>
       <c r="D14" s="38"/>
@@ -3523,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10">
       <c r="B15" s="55"/>
       <c r="C15" s="44"/>
       <c r="D15" s="38"/>
@@ -3537,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10">
       <c r="B16" s="55"/>
       <c r="C16" s="44"/>
       <c r="D16" s="38"/>
@@ -3551,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10">
       <c r="B17" s="55"/>
       <c r="C17" s="44"/>
       <c r="D17" s="38"/>
@@ -3561,11 +3617,11 @@
       <c r="H17" s="38"/>
       <c r="I17" s="38"/>
       <c r="J17" s="56">
-        <f t="shared" ref="J16:J23" si="1">IF(B17="YES",SUM(D17-1)*E17,IF(B17="NO",-E17,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J17:J23" si="1">IF(B17="YES",SUM(D17-1)*E17,IF(B17="NO",-E17,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="55"/>
       <c r="C18" s="44"/>
       <c r="D18" s="38"/>
@@ -3579,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10">
       <c r="B19" s="55"/>
       <c r="C19" s="44"/>
       <c r="D19" s="38"/>
@@ -3593,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10">
       <c r="B20" s="55"/>
       <c r="C20" s="44"/>
       <c r="D20" s="38"/>
@@ -3607,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10">
       <c r="B21" s="55"/>
       <c r="C21" s="44"/>
       <c r="D21" s="38"/>
@@ -3621,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10">
       <c r="B22" s="55"/>
       <c r="C22" s="44"/>
       <c r="D22" s="38"/>
@@ -3635,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="15.75" thickBot="1">
       <c r="B23" s="57"/>
       <c r="C23" s="58"/>
       <c r="D23" s="59"/>

--- a/Otras cosas/Probando.xlsx
+++ b/Otras cosas/Probando.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="8130" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="8130" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mayo" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="63">
   <si>
     <t>Cuota</t>
   </si>
@@ -205,7 +205,16 @@
     <t>%</t>
   </si>
   <si>
-    <t>Total unidades -&gt;&gt;</t>
+    <t>Rotherham - Scunthorpe - Ambos equipos marcan</t>
+  </si>
+  <si>
+    <t>Ambos marcan</t>
+  </si>
+  <si>
+    <t>nº YES -&gt;&gt;</t>
+  </si>
+  <si>
+    <t>nº NO -&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -241,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -531,11 +540,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -576,9 +685,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,9 +716,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -663,9 +766,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -690,15 +790,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1942,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J31"/>
+  <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1957,599 +2068,634 @@
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:10">
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="32">
+      <c r="E2" s="68"/>
+      <c r="F2" s="69">
         <f>SUM(J:J)</f>
-        <v>-2.4724999999999993</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="E3" t="s">
+        <v>-1.3724999999999996</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="2">
+        <f>COUNTIF(B:B,"YES")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1">
+      <c r="D3" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="32">
+      <c r="E3" s="71"/>
+      <c r="F3" s="72">
         <f>SUM(J:J)/SUM(E:E)*100</f>
-        <v>-13.736111111111107</v>
-      </c>
-      <c r="G3" t="s">
+        <v>-7.2236842105263142</v>
+      </c>
+      <c r="G3" s="74" t="s">
         <v>58</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="7">
+        <f>COUNTIF(B:B,"NO")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="5" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="34" t="s">
+      <c r="D5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="47">
         <v>1.9</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="47">
         <v>1.5</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="48">
         <f>IF(B6="YES",SUM(D6-1)*E6,IF(B6="NO",-E6,0))</f>
         <v>1.3499999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="38">
         <v>2.5</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="38">
         <v>1.25</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J7" s="50">
         <f>IF(B7="YES",SUM(D7-1)*E7,IF(B7="NO",-E7,0))</f>
         <v>-1.25</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="30">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="35">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E8" s="36">
-        <v>1</v>
-      </c>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="35">
+        <v>1</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="52">
         <f t="shared" ref="J8:J15" si="0">IF(B8="YES",SUM(D8-1)*E8,IF(B8="NO",-E8,0))</f>
         <v>1.2000000000000002</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="30">
-      <c r="B9" s="55"/>
-      <c r="C9" s="43" t="s">
+      <c r="B9" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="35">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E9" s="38">
-        <v>2</v>
-      </c>
-      <c r="F9" s="38" t="s">
+      <c r="E9" s="35">
+        <v>2</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0999999999999996</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="35">
         <v>1.83</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>1.25</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="52">
         <f t="shared" si="0"/>
         <v>1.0375000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="33" customHeight="1">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="38">
         <v>1.5</v>
       </c>
-      <c r="E11" s="39">
-        <v>2</v>
-      </c>
-      <c r="F11" s="39" t="s">
+      <c r="E11" s="38">
+        <v>2</v>
+      </c>
+      <c r="F11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="52">
+      <c r="J11" s="50">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="30">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="38">
         <v>3.6</v>
       </c>
-      <c r="E12" s="39">
-        <v>1</v>
-      </c>
-      <c r="F12" s="39" t="s">
+      <c r="E12" s="38">
+        <v>1</v>
+      </c>
+      <c r="F12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="52">
+      <c r="J12" s="50">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="30">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="38">
         <v>1.8</v>
       </c>
-      <c r="E13" s="39">
-        <v>2</v>
-      </c>
-      <c r="F13" s="39" t="s">
+      <c r="E13" s="38">
+        <v>2</v>
+      </c>
+      <c r="F13" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="52">
+      <c r="J13" s="50">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="30">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="35">
         <v>1.33</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="35">
         <v>3</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="54">
+      <c r="J14" s="52">
         <f t="shared" si="0"/>
         <v>0.99000000000000021</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="30">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="35">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E15" s="36">
-        <v>1</v>
-      </c>
-      <c r="F15" s="36" t="s">
+      <c r="E15" s="35">
+        <v>1</v>
+      </c>
+      <c r="F15" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="52">
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="30">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="38">
         <v>1.8</v>
       </c>
-      <c r="E16" s="39">
-        <v>2</v>
-      </c>
-      <c r="F16" s="39" t="s">
+      <c r="E16" s="38">
+        <v>2</v>
+      </c>
+      <c r="F16" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="52">
+      <c r="J16" s="50">
         <f t="shared" ref="J16:J30" si="1">IF(B16="YES",SUM(D16-1)*E16,IF(B16="NO",-E16,0))</f>
         <v>-2</v>
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="55"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="56">
+      <c r="B17" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="38">
+        <v>1.9</v>
+      </c>
+      <c r="E17" s="38">
+        <v>1</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="55"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="56">
+      <c r="B18" s="53"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="55"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="56">
+      <c r="B19" s="53"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="55"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="56">
+      <c r="B20" s="53"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="55"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="56">
+      <c r="B21" s="53"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="55"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="56">
+      <c r="B22" s="53"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="55"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="56">
+      <c r="B23" s="53"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="55"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="56">
+      <c r="B24" s="53"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="55"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="56">
+      <c r="B25" s="53"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="55"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="56">
+      <c r="B26" s="53"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="55"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="56">
+      <c r="B27" s="53"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="55"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="56">
+      <c r="B28" s="53"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="55"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="56">
+      <c r="B29" s="53"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B30" s="57"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="60">
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3379,18 +3525,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J23"/>
+  <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -3398,316 +3544,333 @@
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:10">
-      <c r="D2" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="61">
+      <c r="D2" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69">
         <f>SUM(J:J)</f>
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="E3" s="70" t="s">
+      <c r="G2" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="2">
+        <f>COUNTIF(B:B,"YES")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1">
+      <c r="D3" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="61" t="e">
+      <c r="E3" s="71"/>
+      <c r="F3" s="72" t="e">
         <f>SUM(J:J)/SUM(E:E)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="74" t="s">
         <v>58</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="7">
+        <f>COUNTIF(B:B,"NO")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="5" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="67" t="s">
+      <c r="D5" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="66" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65">
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62">
         <f t="shared" ref="J6:J16" si="0">IF(B6="YES",SUM(D6-1)*E6,IF(B6="NO",-E6,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="55"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="56">
+      <c r="B7" s="53"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="55"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="56">
+      <c r="B8" s="53"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="55"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="56">
+      <c r="B9" s="53"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="55"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="56">
+      <c r="B10" s="53"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="55"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="56">
+      <c r="B11" s="53"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="55"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="56">
+      <c r="B12" s="53"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="55"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="56">
+      <c r="B13" s="53"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="55"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="56">
+      <c r="B14" s="53"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="55"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="56">
+      <c r="B15" s="53"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="55"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="56">
+      <c r="B16" s="53"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="55"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="56">
+      <c r="B17" s="53"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="54">
         <f t="shared" ref="J17:J23" si="1">IF(B17="YES",SUM(D17-1)*E17,IF(B17="NO",-E17,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="55"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="56">
+      <c r="B18" s="53"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="55"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="56">
+      <c r="B19" s="53"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="55"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="56">
+      <c r="B20" s="53"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="55"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="56">
+      <c r="B21" s="53"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="55"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="56">
+      <c r="B22" s="53"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="60">
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
